--- a/data/hotels_by_city/Dallas/Dallas_shard_65.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_65.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="348">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>846Bruno</t>
+  </si>
+  <si>
     <t>05/28/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>This place is in business for long stays. Rooms are equipped with appliances. Clean place but would need upgrading since it becomes a little old. Well situated near restaurants and service stations. Not sure we would return.More</t>
   </si>
   <si>
+    <t>nickmantle</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r565304811-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -210,6 +216,9 @@
     <t>Prior Military Veteran who is handicapped from PTSD. The worst experience ever. The owner of the hotel who is indian ethic parks in a handicapped parking spot or parks in the front with an a black mercedes with an expired registration with no texas front plate. No respect for the elderly either. From his own words..."I will park where ever I want to, this is my place" I decided to checkout early as I do not want to contribute to someone who is not a good person and has no clue and respect towards veterans, elderly, and anyone. Never stay here! SGT Mann - Also cigarette butts littered all over the grounds, poor housekeeping.More</t>
   </si>
   <si>
+    <t>cliffsiler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r549793896-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -231,6 +240,9 @@
     <t>The hotel was okay. The service was gleaming. My room was clean and roomy but there no popcorn in the room as all other Candlewood hotels provide you with. Also the thermostat didn't work as a normal thermostat. HOWEVER, the lady at the front desk informed me that IHG told them they could no longer provide the popcorn and a very nice gentleman came up to my room immediately to explain why the thermostat on the wall didn't work and why the fan had to run continuously all night. This did keep a nice airflow in the room all night. The easy chair in the room looked as if an animal found parts of it tasty but I didn't sit anyway. I simply took my shower and went straight to bed to rest so I could leave out early in the morning. The TV and internet worked well and the room did have a kitchenette and NO Keurig coffee maker so I at least got to have a decent cup of coffee. I thought that the price was a little high for this hotel but the staff did make up for it. I would probably DO IT HERE AGAIN. There was easy access with a Big Rig on the street and they also had a small lot for truck parking. I checked out t 3:30 am with no problems or delays at all. Receipt in hand.More</t>
   </si>
   <si>
+    <t>drdroad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r545871674-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -249,6 +261,9 @@
     <t>November 2017</t>
   </si>
   <si>
+    <t>Wcurry2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r543655073-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -267,6 +282,9 @@
     <t>September 2017</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r499759889-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -288,6 +306,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>snaorhaeha</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r485492996-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -306,6 +327,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>83smile</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r484466411-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -330,6 +354,9 @@
     <t>There was a musty/stale cigarette smell in the halls. The room also smelled! The closet had it's own funky nasty smell! I had to buy air fresheners for our room! The room was not cleaned properly; my daughter moved the recliner and there was all kinds of trash under there; went to turn on the air and thermostat was cover in dust! Please don't waste your money! Oh and they don't serve breakfast! You are better off staying at the Motel 6 down the street! More</t>
   </si>
   <si>
+    <t>Tinkonthego0628</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r466397464-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -357,6 +384,9 @@
     <t>Smelled like must and mildew when you walk in. Rooms are better than the Extended Stay that I am at now. Nice kitchens, big bathrooms. Housekeepers need to check under the beds, there was trash and someone's socks! Front desk is very helpful in finding restaurants and shopping near by.More</t>
   </si>
   <si>
+    <t>Cort A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r446148410-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -384,6 +414,9 @@
     <t>This is a poorly built hotel and it is obvious. We had several problems and would have left if we had not paid for the stay in advance.The showers leak on the bathroom floor. When you pull up the knob on the faucet to turn the shower on it sprays water on the wall which runs out on the floor. Once I figured out what was leaking we wrapped a wash cloth around the faucet to keep it from spraying. It was obvious from the mildew marks on the bathroom door frame this had been going on for awhile. Based on the water marks on the ceiling it was happening in at least one other room. The hotels solution was to bring us extra towels for the floor when we brought it up.The thermostat on the wall didn't work.We killed one or two ants every morning in the bathroom.This is the third Candlewood Suites I have stayed in this year and the rooms here are smaller than the others. The bed has a nightstand on one side and is so close to the wall on the other it is difficult to get in and out of the bed on that side.More</t>
   </si>
   <si>
+    <t>skee7221</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r431871781-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -402,6 +435,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>Tina B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r408961106-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -420,6 +456,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>awunder2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r365657067-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -447,6 +486,9 @@
     <t>Musty odor, cigarette smoke smell, broke boxsprings, no clean towels available when went to exchange them, stripped bed linens but did not put any clean ones back on maid said she would be back after she done the laundry. Unfriendly and not very helpful front desk staff. No offer to have us move to another room after we reported the problem with the bed after the first night,  took three days to get it checked out and still had to wait for it to be fixed...still waiting..having a full size refrigerator and two burner stove top was nice. They let you do your laundry free so that is a plus. Pet friendly hotel.More</t>
   </si>
   <si>
+    <t>Darin J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r338222397-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -465,6 +507,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>LEAVENONAJETPLANE65</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r317199423-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -492,6 +537,9 @@
     <t>I have stayed at many Candlewood Suites and I have to say there is something different about this one I too experienced the musty room smell ,My carpet was filthy in my room if I had my curtains opened and the sun hit just right you could see just how filthy it was, Towels are on the dingy but smelled clean, Bedding was fine, Although most Candlewoods have a well stocked Candlewood cupboard which is where you can purchase food or other things this one had hardly and I mean hardly anything at all. Some Candlewoods offer frozen foods and ice cream and different candies and such not here..I have stayed at other Candlewoods that cater in food once a week was there a week and there is nothing. The staff however is GREAT!!! very friendly and helpful but if the owners would put some money into this place and bring it to the standards that most people who have stayed with Candlewoods know and deserve it would be a great property.More</t>
   </si>
   <si>
+    <t>jocelynDay386</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r295500498-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -510,6 +558,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>4jolly_ranchers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r289300895-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -528,6 +579,9 @@
     <t>This hotel is great for long-term business travelers, as you can bring your own food to the fully stocked kitchenette. Not good for one-nighters, as there is no included breakfast. Room is a good size. Curtains don't close all the way. A/C unit not on when we walked in in the middle of a hot July day. Room had a musty odor. Large bathroom. Very clean, quiet. Accomodating front desk. Pool is ok, a handman was working on the exterior door back into the hotel across from the pool, He left and he did not tell us that he was going to take the handle off, so we had no choice but to enter back into the hotel by going all the way around the front in our swimsuits. Pool towels are skimpy. Would not stay here again since there are so many other hotels that offer an included breakfast.  Hotel is hidden behind other hotels and not marked by a sign off the main road, so it was hard to find. Also, the workout room was not available because the handyman was working in there.More</t>
   </si>
   <si>
+    <t>Astarac</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r277820163-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -546,6 +600,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>bigjimmyt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r242841269-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -573,6 +630,9 @@
     <t>For a longer stay, the full frig and stove top was nice along with some basic kitchen utensils. But thats all you get. If you have ever wanted to dry off with the worst "towel" ever then this is the place. And you can only have one at a time and must take your dirty one down and trade it at the front desk. And the elevator broke 2 times with a room on the 4th floor was great. There is alot of shops, fast food and restaurants with in driving distance but nothing if you want to walk. But all in all if you need a cheaper long term stay, there are alot worse. With a clean room and nice staff, makes it a 3 star.More</t>
   </si>
   <si>
+    <t>RPD317</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r237590242-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -600,6 +660,9 @@
     <t>The hotel is nice enough, but pricy. The front desk experienced some confusion dealing with the reservation made by our company. The front desk is cheery and willing to help, though sometimes things need brought to their attention. Breakfast is from 0630-0930 with bananas, cereal, juice, coffee and waffles. The laundry is free and there is a heated pool that is mostly unused. Like all the hotels I have used in the last few months in Texas there are some insects in the stairwells, but the rooms are clean. All in all it is a comfortable place and there are amenities nearby.More</t>
   </si>
   <si>
+    <t>Ebony T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r233478712-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -618,6 +681,9 @@
     <t>upon checking into the hotel my room was hot and musty. I was here for work, so changing properties was not an option for me or I would have left. the manager asked me if I broke the ac because he had just fixed it the day before. I had no choice but to stay in the room for the evening. the next morning I left for work and returned on my lunch and inquired about getting the ac fixed and he asked me, "you no work today"? and proceeded to tell me why fix it and I check out the following morning. I am very displeased with my stay and my advice to travelers is do not allow them to PAY YOU to stay at their property.....signed disgruntled guest.More</t>
   </si>
   <si>
+    <t>Lewis H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r226157140-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -645,6 +711,9 @@
     <t>We stayed here over a weekend while visiting family in Weatherford. The location is reasonably convenient, as witnessed by the competition nearby. Likely the others will get a serious look next time we are in the area. The suite was roomy, but quite pedestrian in terms of furnishings. We were on the back side, so it was quiet and the view to the south not bad for Texas. So with a comfortable bed and quiet the sleep was quite satisfactory. But when I saw what the room rate was (my wife had made the reservation) I knew we had given more than we got. The breakfast offerings were extremely spartan. It may be that this and the price-value proposition more than the holiday/weekend are more responsible for the empty parking lot compared to the neighboring offerings.More</t>
   </si>
   <si>
+    <t>MortimerT</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r186417876-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -663,6 +732,9 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>2Purple1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r178346020-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -681,6 +753,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>1ibrahim</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r170896677-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -699,6 +774,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>anna-rubi2606</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r167116757-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -717,6 +795,9 @@
     <t>My husband is here on business/company training/company paid stay for two weeks. Chetan Panchal and the staff made us feel very welcome and are very helpful. We were very satisfied with our room and service. Our room is large,its like an efficiency, very clean. We have a kitchen with a refrigerator, sink top, cooking range top, dishes, cooking utensils, dishwasher, microwave, coffee maker and table/desk. There is a Waffle house down the street,free breakfast vouchers at the front desk. I brought my Xoom and we were given username and pass for Wifi. The hotel has computers downstairs if you dont have an ipad or laptop. Large flat screen TV/DVD player/TV channel listing. Large, firm, comfortable bed,lots of pillows, dresser, bedside stand with phone,alarm clock, wall lamps and A/C. We also have a large leather recliner, very nice, comfortable. Spacious closet. Large restroom, lots of towels, hairdryer. The view from our window towards the back of the hotel is amazing. Lots of trees and a winding road, very private. Privacy is a plus. Those are just a few things not to mention the laundry, gym, the candlewood cupboard, library, complimentary movie s, indoor/ heated pool, gazebo with gas grill. We are totally satisfied and will be here for another week and a half. We are looking forward to the annual Peach festival right down the street, huge event. Last year reports show 45000 people plus! We look forward to coming back...My husband is here on business/company training/company paid stay for two weeks. Chetan Panchal and the staff made us feel very welcome and are very helpful. We were very satisfied with our room and service. Our room is large,its like an efficiency, very clean. We have a kitchen with a refrigerator, sink top, cooking range top, dishes, cooking utensils, dishwasher, microwave, coffee maker and table/desk. There is a Waffle house down the street,free breakfast vouchers at the front desk. I brought my Xoom and we were given username and pass for Wifi. The hotel has computers downstairs if you dont have an ipad or laptop. Large flat screen TV/DVD player/TV channel listing. Large, firm, comfortable bed,lots of pillows, dresser, bedside stand with phone,alarm clock, wall lamps and A/C. We also have a large leather recliner, very nice, comfortable. Spacious closet. Large restroom, lots of towels, hairdryer. The view from our window towards the back of the hotel is amazing. Lots of trees and a winding road, very private. Privacy is a plus. Those are just a few things not to mention the laundry, gym, the candlewood cupboard, library, complimentary movie s, indoor/ heated pool, gazebo with gas grill. We are totally satisfied and will be here for another week and a half. We are looking forward to the annual Peach festival right down the street, huge event. Last year reports show 45000 people plus! We look forward to coming back to candlewood suites in the future. Location is great, 20 mins from Fort Worth, easy access to I-20, right off of S. Main, lots of shopping centers and restaurants and of course Walmart.More</t>
   </si>
   <si>
+    <t>TravelAddict1955</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r164257007-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -738,6 +819,9 @@
     <t>We sold our home in 24 hours and needed a place to stay for two months!  We have two pets, also.  We checked various hotels in the Weatherford area, where I work.  By far Candlewood Suites had the best rates and was a relatively new property in the area.  The stay was a challenge due to two months in a hotel room with two pets, but the staff at the CS made the stay comfortable and convenient.  The hotel is kept clean, the rooms are comfortable, provide internet, and flat screen tv, and kitchens.  Usually when we travel for leisure, Candlewood Suites has not been our choice.  However, I must say that the staff at this property was AWESOME and made our stay comfortable and pleasant.  The rate could not be beat and our two dogs, who are a part of our family were welcomed.  Much thanks to all the staff!More</t>
   </si>
   <si>
+    <t>Greekprof7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r159685541-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -756,6 +840,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>PaulABQ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r148249515-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -771,6 +858,9 @@
     <t>Clean large room, very nice. Pet friendly but will cost $25.00. Extra roll-a-way is $10.00, which is a little ridiculous. Overall staff is very nice and a very clean place to stay. Right off the freeway, easy on and off. Well lite parking lot.</t>
   </si>
   <si>
+    <t>labivens</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r139418848-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -786,6 +876,9 @@
     <t xml:space="preserve">Clean, quiet and close to highway. If you can find the street to the driveway, streets are a little confusing. There's no breakfast but coffee available. Very well lighted and safe parking lot. Close to shopping and several places to eat. </t>
   </si>
   <si>
+    <t>dgreen621</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r133533353-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -804,6 +897,9 @@
     <t>June 2012</t>
   </si>
   <si>
+    <t>oksooner1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r132478256-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -822,6 +918,9 @@
     <t>I stayed here for one night with my elderly parents.  We stayed in a one bedroom unit with a sleeper sofa.  My mother is VERY picky about hotel cleanliness and was pleased.  The rooms were warm when we arrived but quickly cooled down.  Room size was great - 2 TVs also nice.  The kitchen was clean and functional.   They give two coupons per room for breakfast or lunch at the nearby, though really not walkable, Waffle House.  As previously mentioned the have an honor system snack room.  Some items are free. Due to a circumstance beyond our control we needed a slightly late check out time; they were understanding.     I do not anticipate ever traveling through this area again but if I did I would stay here again.More</t>
   </si>
   <si>
+    <t>Neel K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r130552588-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -840,6 +939,9 @@
     <t>April 2012</t>
   </si>
   <si>
+    <t>tonyandpamt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r129829657-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -858,12 +960,18 @@
     <t>May 2012</t>
   </si>
   <si>
+    <t>Christy S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r126511396-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
     <t>126511396</t>
   </si>
   <si>
+    <t>thetravellingoctopus</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r124321087-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -879,6 +987,9 @@
     <t>We booked through Hotwire, so got a cheaper than advertised rate...but it would definitely have been worth the list price anyway!Room nice and spacious, clean with really comfy bed. Kitchen had all the pots and pans we needed and WalMart was only a ten minute walk away. Had a problem connecting to WiFi, but tech support very helpful (we have a tablet PC, which they suggested might be the problem as they're less adept at picking up weak signals), but made ample use of the on site business centre instead.Free laundry another real bonus! Best value place we've stayed at, thanks!</t>
   </si>
   <si>
+    <t>J T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r122947378-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -900,6 +1011,9 @@
     <t>I booked this room on Priceline for $40 ($52 with tax) for a recent Saturday night. We arrived after a long day of travel and the manager told us he would only offer a room with one queen bed because of the Priceline rate. There were four of us -- me, my husband, and our two exhausted young children. The manager/owner told us he had plenty of extra rooms with kings or two doubles, and he did not plan to sell out that night, but he could not offer us a different room, or a roll away bed. So, my poor husband slept on the floor on a pile of sheets. We were unable to contact Priceline that night, but I spoke with them after the trip and they said the room is completely up to the manager's discretion. I find that most people are kind enough to help others out if they can. This owner wasn't willing to do that. Additionally, the hotel was not clean -- I took my socks off before bed and my feet stuck to the faux hardwood floors in the kitchen area, uck. Also the hotel was filled with people who were drinking and partying and making tons of noise all night -- I think I slept for an hour tops. All morning, wherever you went on the property, there were empty beer bottles. When we took our two young children to the indoor...I booked this room on Priceline for $40 ($52 with tax) for a recent Saturday night. We arrived after a long day of travel and the manager told us he would only offer a room with one queen bed because of the Priceline rate. There were four of us -- me, my husband, and our two exhausted young children. The manager/owner told us he had plenty of extra rooms with kings or two doubles, and he did not plan to sell out that night, but he could not offer us a different room, or a roll away bed. So, my poor husband slept on the floor on a pile of sheets. We were unable to contact Priceline that night, but I spoke with them after the trip and they said the room is completely up to the manager's discretion. I find that most people are kind enough to help others out if they can. This owner wasn't willing to do that. Additionally, the hotel was not clean -- I took my socks off before bed and my feet stuck to the faux hardwood floors in the kitchen area, uck. Also the hotel was filled with people who were drinking and partying and making tons of noise all night -- I think I slept for an hour tops. All morning, wherever you went on the property, there were empty beer bottles. When we took our two young children to the indoor swimming pool, the floors were littered with cigarette butts, beer bottles and bottle caps. We are huge Priceline fans and book a lot of rooms off the site, and this was by far the worst experience we've had.More</t>
   </si>
   <si>
+    <t>Jill D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r118017853-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -916,6 +1030,9 @@
   </si>
   <si>
     <t>September 2011</t>
+  </si>
+  <si>
+    <t>kgw86</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r114773679-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
@@ -1453,43 +1570,47 @@
       <c r="A2" t="n">
         <v>59683</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>124195</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>
@@ -1505,56 +1626,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>59683</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>124196</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
@@ -1572,50 +1697,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>59683</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>37350</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P4" t="n">
         <v>4</v>
@@ -1635,50 +1764,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>59683</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>124197</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1698,50 +1831,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>59683</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>124198</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="O6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1761,50 +1898,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>59683</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="O7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1818,50 +1959,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>59683</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>65463</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="L8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="O8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1875,50 +2020,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>59683</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>124199</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="K9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="L9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" t="s">
         <v>95</v>
-      </c>
-      <c r="O9" t="s">
-        <v>89</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1930,56 +2079,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="X9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="Y9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>59683</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>124200</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="J10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="K10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="L10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="O10" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1995,56 +2148,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="X10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="Y10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>59683</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>124201</v>
+      </c>
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="J11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="K11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="L11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="O11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -2062,56 +2219,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="X11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="Y11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>59683</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>124202</v>
+      </c>
+      <c r="C12" t="s">
+        <v>132</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="J12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="K12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="L12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -2129,50 +2290,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>59683</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>7516</v>
+      </c>
+      <c r="C13" t="s">
+        <v>139</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="J13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="K13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="L13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="O13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2186,50 +2351,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>59683</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>124203</v>
+      </c>
+      <c r="C14" t="s">
+        <v>146</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="J14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="K14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="L14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="O14" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -2247,56 +2416,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="X14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="Y14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>59683</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>68872</v>
+      </c>
+      <c r="C15" t="s">
+        <v>156</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="J15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="K15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="L15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="O15" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2314,50 +2487,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>59683</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>88460</v>
+      </c>
+      <c r="C16" t="s">
+        <v>163</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="J16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="K16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="L16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="O16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2369,56 +2546,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="X16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="Y16" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>59683</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>124204</v>
+      </c>
+      <c r="C17" t="s">
+        <v>173</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="J17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="K17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="L17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="O17" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -2438,50 +2619,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>59683</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>124205</v>
+      </c>
+      <c r="C18" t="s">
+        <v>180</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="J18" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="K18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="O18" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -2501,50 +2686,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>59683</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>124206</v>
+      </c>
+      <c r="C19" t="s">
+        <v>187</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="J19" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="K19" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="L19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="O19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -2564,50 +2753,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>59683</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>124207</v>
+      </c>
+      <c r="C20" t="s">
+        <v>194</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="J20" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="K20" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="L20" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="O20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2619,56 +2812,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="X20" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="Y20" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>59683</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>124208</v>
+      </c>
+      <c r="C21" t="s">
+        <v>204</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="J21" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="K21" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="L21" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="O21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
@@ -2686,56 +2883,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="X21" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="Y21" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>59683</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>124209</v>
+      </c>
+      <c r="C22" t="s">
+        <v>214</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="J22" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="K22" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="L22" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="O22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2753,56 +2954,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="X22" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="Y22" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>59683</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>124210</v>
+      </c>
+      <c r="C23" t="s">
+        <v>221</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="J23" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="K23" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="L23" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="O23" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P23" t="n">
         <v>2</v>
@@ -2820,56 +3025,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="X23" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="Y23" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>59683</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>124211</v>
+      </c>
+      <c r="C24" t="s">
+        <v>231</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="J24" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="K24" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="L24" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="O24" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -2883,50 +3092,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>59683</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>124212</v>
+      </c>
+      <c r="C25" t="s">
+        <v>238</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="J25" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="K25" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="L25" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="O25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -2950,50 +3163,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>59683</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>124213</v>
+      </c>
+      <c r="C26" t="s">
+        <v>245</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="J26" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="K26" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="L26" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="O26" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3017,50 +3234,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>59683</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>124214</v>
+      </c>
+      <c r="C27" t="s">
+        <v>252</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="J27" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="K27" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="L27" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="O27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -3084,50 +3305,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>59683</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>5008</v>
+      </c>
+      <c r="C28" t="s">
+        <v>259</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="J28" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="K28" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="L28" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="O28" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -3151,50 +3376,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>59683</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>124215</v>
+      </c>
+      <c r="C29" t="s">
+        <v>267</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="J29" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="K29" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="L29" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="O29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -3218,41 +3447,45 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>59683</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>124216</v>
+      </c>
+      <c r="C30" t="s">
+        <v>274</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="J30" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="K30" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="L30" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
@@ -3281,41 +3514,45 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>59683</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>124217</v>
+      </c>
+      <c r="C31" t="s">
+        <v>280</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="J31" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="K31" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="L31" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
@@ -3344,50 +3581,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>59683</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>124218</v>
+      </c>
+      <c r="C32" t="s">
+        <v>286</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="J32" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="K32" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="L32" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="O32" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3411,50 +3652,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>59683</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>54000</v>
+      </c>
+      <c r="C33" t="s">
+        <v>293</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="J33" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="K33" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="L33" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="O33" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -3468,50 +3713,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>59683</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>124219</v>
+      </c>
+      <c r="C34" t="s">
+        <v>300</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="J34" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="K34" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="L34" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="O34" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P34" t="n">
         <v>4</v>
@@ -3535,50 +3784,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>59683</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>124220</v>
+      </c>
+      <c r="C35" t="s">
+        <v>307</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="J35" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="K35" t="s">
-        <v>277</v>
+        <v>311</v>
       </c>
       <c r="L35" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="O35" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -3602,32 +3855,36 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>59683</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>13871</v>
+      </c>
+      <c r="C36" t="s">
+        <v>314</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="J36" t="s"/>
       <c r="K36" t="s"/>
@@ -3644,42 +3901,43 @@
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
-      <c r="Y36" t="s"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>59683</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>124221</v>
+      </c>
+      <c r="C37" t="s">
+        <v>317</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="J37" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="K37" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="L37" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
@@ -3708,50 +3966,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>59683</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>37081</v>
+      </c>
+      <c r="C38" t="s">
+        <v>323</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="J38" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="K38" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="L38" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="O38" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P38" t="n">
         <v>1</v>
@@ -3775,50 +4037,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>59683</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>3636</v>
+      </c>
+      <c r="C39" t="s">
+        <v>331</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>295</v>
+        <v>333</v>
       </c>
       <c r="J39" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
       <c r="K39" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="L39" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="O39" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -3838,50 +4104,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>59683</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>124222</v>
+      </c>
+      <c r="C40" t="s">
+        <v>338</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="J40" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="K40" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="L40" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="O40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -3899,13 +4169,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="X40" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="Y40" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_65.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_65.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="313">
   <si>
     <t>STR#</t>
   </si>
@@ -147,10 +147,7 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>846Bruno</t>
-  </si>
-  <si>
-    <t>05/28/2018</t>
+    <t>08/17/2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r576555956-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
@@ -180,18 +177,15 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
-    <t>IHGService, Guest Relations Manager at Candlewood Suites Weatherford, responded to this reviewResponded 2 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 2 weeks ago</t>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Weatherford, responded to this reviewResponded May 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 14, 2018</t>
   </si>
   <si>
     <t>This place is in business for long stays. Rooms are equipped with appliances. Clean place but would need upgrading since it becomes a little old. Well situated near restaurants and service stations. Not sure we would return.More</t>
   </si>
   <si>
-    <t>nickmantle</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r565304811-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -216,9 +210,6 @@
     <t>Prior Military Veteran who is handicapped from PTSD. The worst experience ever. The owner of the hotel who is indian ethic parks in a handicapped parking spot or parks in the front with an a black mercedes with an expired registration with no texas front plate. No respect for the elderly either. From his own words..."I will park where ever I want to, this is my place" I decided to checkout early as I do not want to contribute to someone who is not a good person and has no clue and respect towards veterans, elderly, and anyone. Never stay here! SGT Mann - Also cigarette butts littered all over the grounds, poor housekeeping.More</t>
   </si>
   <si>
-    <t>cliffsiler</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r549793896-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -240,9 +231,6 @@
     <t>The hotel was okay. The service was gleaming. My room was clean and roomy but there no popcorn in the room as all other Candlewood hotels provide you with. Also the thermostat didn't work as a normal thermostat. HOWEVER, the lady at the front desk informed me that IHG told them they could no longer provide the popcorn and a very nice gentleman came up to my room immediately to explain why the thermostat on the wall didn't work and why the fan had to run continuously all night. This did keep a nice airflow in the room all night. The easy chair in the room looked as if an animal found parts of it tasty but I didn't sit anyway. I simply took my shower and went straight to bed to rest so I could leave out early in the morning. The TV and internet worked well and the room did have a kitchenette and NO Keurig coffee maker so I at least got to have a decent cup of coffee. I thought that the price was a little high for this hotel but the staff did make up for it. I would probably DO IT HERE AGAIN. There was easy access with a Big Rig on the street and they also had a small lot for truck parking. I checked out t 3:30 am with no problems or delays at all. Receipt in hand.More</t>
   </si>
   <si>
-    <t>drdroad</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r545871674-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -261,9 +249,6 @@
     <t>November 2017</t>
   </si>
   <si>
-    <t>Wcurry2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r543655073-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -282,9 +267,6 @@
     <t>September 2017</t>
   </si>
   <si>
-    <t>A TripAdvisor Member</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r499759889-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -306,9 +288,6 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
-    <t>snaorhaeha</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r485492996-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -327,9 +306,6 @@
     <t>May 2017</t>
   </si>
   <si>
-    <t>83smile</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r484466411-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -354,9 +330,6 @@
     <t>There was a musty/stale cigarette smell in the halls. The room also smelled! The closet had it's own funky nasty smell! I had to buy air fresheners for our room! The room was not cleaned properly; my daughter moved the recliner and there was all kinds of trash under there; went to turn on the air and thermostat was cover in dust! Please don't waste your money! Oh and they don't serve breakfast! You are better off staying at the Motel 6 down the street! More</t>
   </si>
   <si>
-    <t>Tinkonthego0628</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r466397464-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -384,9 +357,6 @@
     <t>Smelled like must and mildew when you walk in. Rooms are better than the Extended Stay that I am at now. Nice kitchens, big bathrooms. Housekeepers need to check under the beds, there was trash and someone's socks! Front desk is very helpful in finding restaurants and shopping near by.More</t>
   </si>
   <si>
-    <t>Cort A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r446148410-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -414,9 +384,6 @@
     <t>This is a poorly built hotel and it is obvious. We had several problems and would have left if we had not paid for the stay in advance.The showers leak on the bathroom floor. When you pull up the knob on the faucet to turn the shower on it sprays water on the wall which runs out on the floor. Once I figured out what was leaking we wrapped a wash cloth around the faucet to keep it from spraying. It was obvious from the mildew marks on the bathroom door frame this had been going on for awhile. Based on the water marks on the ceiling it was happening in at least one other room. The hotels solution was to bring us extra towels for the floor when we brought it up.The thermostat on the wall didn't work.We killed one or two ants every morning in the bathroom.This is the third Candlewood Suites I have stayed in this year and the rooms here are smaller than the others. The bed has a nightstand on one side and is so close to the wall on the other it is difficult to get in and out of the bed on that side.More</t>
   </si>
   <si>
-    <t>skee7221</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r431871781-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -435,9 +402,6 @@
     <t>October 2016</t>
   </si>
   <si>
-    <t>Tina B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r408961106-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -456,9 +420,6 @@
     <t>July 2016</t>
   </si>
   <si>
-    <t>awunder2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r365657067-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -486,9 +447,6 @@
     <t>Musty odor, cigarette smoke smell, broke boxsprings, no clean towels available when went to exchange them, stripped bed linens but did not put any clean ones back on maid said she would be back after she done the laundry. Unfriendly and not very helpful front desk staff. No offer to have us move to another room after we reported the problem with the bed after the first night,  took three days to get it checked out and still had to wait for it to be fixed...still waiting..having a full size refrigerator and two burner stove top was nice. They let you do your laundry free so that is a plus. Pet friendly hotel.More</t>
   </si>
   <si>
-    <t>Darin J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r338222397-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -507,9 +465,6 @@
     <t>December 2015</t>
   </si>
   <si>
-    <t>LEAVENONAJETPLANE65</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r317199423-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -537,9 +492,6 @@
     <t>I have stayed at many Candlewood Suites and I have to say there is something different about this one I too experienced the musty room smell ,My carpet was filthy in my room if I had my curtains opened and the sun hit just right you could see just how filthy it was, Towels are on the dingy but smelled clean, Bedding was fine, Although most Candlewoods have a well stocked Candlewood cupboard which is where you can purchase food or other things this one had hardly and I mean hardly anything at all. Some Candlewoods offer frozen foods and ice cream and different candies and such not here..I have stayed at other Candlewoods that cater in food once a week was there a week and there is nothing. The staff however is GREAT!!! very friendly and helpful but if the owners would put some money into this place and bring it to the standards that most people who have stayed with Candlewoods know and deserve it would be a great property.More</t>
   </si>
   <si>
-    <t>jocelynDay386</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r295500498-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -558,9 +510,6 @@
     <t>July 2015</t>
   </si>
   <si>
-    <t>4jolly_ranchers</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r289300895-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -579,9 +528,6 @@
     <t>This hotel is great for long-term business travelers, as you can bring your own food to the fully stocked kitchenette. Not good for one-nighters, as there is no included breakfast. Room is a good size. Curtains don't close all the way. A/C unit not on when we walked in in the middle of a hot July day. Room had a musty odor. Large bathroom. Very clean, quiet. Accomodating front desk. Pool is ok, a handman was working on the exterior door back into the hotel across from the pool, He left and he did not tell us that he was going to take the handle off, so we had no choice but to enter back into the hotel by going all the way around the front in our swimsuits. Pool towels are skimpy. Would not stay here again since there are so many other hotels that offer an included breakfast.  Hotel is hidden behind other hotels and not marked by a sign off the main road, so it was hard to find. Also, the workout room was not available because the handyman was working in there.More</t>
   </si>
   <si>
-    <t>Astarac</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r277820163-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -600,9 +546,6 @@
     <t>May 2015</t>
   </si>
   <si>
-    <t>bigjimmyt</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r242841269-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -630,9 +573,6 @@
     <t>For a longer stay, the full frig and stove top was nice along with some basic kitchen utensils. But thats all you get. If you have ever wanted to dry off with the worst "towel" ever then this is the place. And you can only have one at a time and must take your dirty one down and trade it at the front desk. And the elevator broke 2 times with a room on the 4th floor was great. There is alot of shops, fast food and restaurants with in driving distance but nothing if you want to walk. But all in all if you need a cheaper long term stay, there are alot worse. With a clean room and nice staff, makes it a 3 star.More</t>
   </si>
   <si>
-    <t>RPD317</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r237590242-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -660,9 +600,6 @@
     <t>The hotel is nice enough, but pricy. The front desk experienced some confusion dealing with the reservation made by our company. The front desk is cheery and willing to help, though sometimes things need brought to their attention. Breakfast is from 0630-0930 with bananas, cereal, juice, coffee and waffles. The laundry is free and there is a heated pool that is mostly unused. Like all the hotels I have used in the last few months in Texas there are some insects in the stairwells, but the rooms are clean. All in all it is a comfortable place and there are amenities nearby.More</t>
   </si>
   <si>
-    <t>Ebony T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r233478712-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -681,9 +618,6 @@
     <t>upon checking into the hotel my room was hot and musty. I was here for work, so changing properties was not an option for me or I would have left. the manager asked me if I broke the ac because he had just fixed it the day before. I had no choice but to stay in the room for the evening. the next morning I left for work and returned on my lunch and inquired about getting the ac fixed and he asked me, "you no work today"? and proceeded to tell me why fix it and I check out the following morning. I am very displeased with my stay and my advice to travelers is do not allow them to PAY YOU to stay at their property.....signed disgruntled guest.More</t>
   </si>
   <si>
-    <t>Lewis H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r226157140-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -711,9 +645,6 @@
     <t>We stayed here over a weekend while visiting family in Weatherford. The location is reasonably convenient, as witnessed by the competition nearby. Likely the others will get a serious look next time we are in the area. The suite was roomy, but quite pedestrian in terms of furnishings. We were on the back side, so it was quiet and the view to the south not bad for Texas. So with a comfortable bed and quiet the sleep was quite satisfactory. But when I saw what the room rate was (my wife had made the reservation) I knew we had given more than we got. The breakfast offerings were extremely spartan. It may be that this and the price-value proposition more than the holiday/weekend are more responsible for the empty parking lot compared to the neighboring offerings.More</t>
   </si>
   <si>
-    <t>MortimerT</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r186417876-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -732,9 +663,6 @@
     <t>December 2013</t>
   </si>
   <si>
-    <t>2Purple1</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r178346020-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -753,9 +681,6 @@
     <t>September 2013</t>
   </si>
   <si>
-    <t>1ibrahim</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r170896677-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -774,9 +699,6 @@
     <t>July 2013</t>
   </si>
   <si>
-    <t>anna-rubi2606</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r167116757-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -795,9 +717,6 @@
     <t>My husband is here on business/company training/company paid stay for two weeks. Chetan Panchal and the staff made us feel very welcome and are very helpful. We were very satisfied with our room and service. Our room is large,its like an efficiency, very clean. We have a kitchen with a refrigerator, sink top, cooking range top, dishes, cooking utensils, dishwasher, microwave, coffee maker and table/desk. There is a Waffle house down the street,free breakfast vouchers at the front desk. I brought my Xoom and we were given username and pass for Wifi. The hotel has computers downstairs if you dont have an ipad or laptop. Large flat screen TV/DVD player/TV channel listing. Large, firm, comfortable bed,lots of pillows, dresser, bedside stand with phone,alarm clock, wall lamps and A/C. We also have a large leather recliner, very nice, comfortable. Spacious closet. Large restroom, lots of towels, hairdryer. The view from our window towards the back of the hotel is amazing. Lots of trees and a winding road, very private. Privacy is a plus. Those are just a few things not to mention the laundry, gym, the candlewood cupboard, library, complimentary movie s, indoor/ heated pool, gazebo with gas grill. We are totally satisfied and will be here for another week and a half. We are looking forward to the annual Peach festival right down the street, huge event. Last year reports show 45000 people plus! We look forward to coming back...My husband is here on business/company training/company paid stay for two weeks. Chetan Panchal and the staff made us feel very welcome and are very helpful. We were very satisfied with our room and service. Our room is large,its like an efficiency, very clean. We have a kitchen with a refrigerator, sink top, cooking range top, dishes, cooking utensils, dishwasher, microwave, coffee maker and table/desk. There is a Waffle house down the street,free breakfast vouchers at the front desk. I brought my Xoom and we were given username and pass for Wifi. The hotel has computers downstairs if you dont have an ipad or laptop. Large flat screen TV/DVD player/TV channel listing. Large, firm, comfortable bed,lots of pillows, dresser, bedside stand with phone,alarm clock, wall lamps and A/C. We also have a large leather recliner, very nice, comfortable. Spacious closet. Large restroom, lots of towels, hairdryer. The view from our window towards the back of the hotel is amazing. Lots of trees and a winding road, very private. Privacy is a plus. Those are just a few things not to mention the laundry, gym, the candlewood cupboard, library, complimentary movie s, indoor/ heated pool, gazebo with gas grill. We are totally satisfied and will be here for another week and a half. We are looking forward to the annual Peach festival right down the street, huge event. Last year reports show 45000 people plus! We look forward to coming back to candlewood suites in the future. Location is great, 20 mins from Fort Worth, easy access to I-20, right off of S. Main, lots of shopping centers and restaurants and of course Walmart.More</t>
   </si>
   <si>
-    <t>TravelAddict1955</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r164257007-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -819,9 +738,6 @@
     <t>We sold our home in 24 hours and needed a place to stay for two months!  We have two pets, also.  We checked various hotels in the Weatherford area, where I work.  By far Candlewood Suites had the best rates and was a relatively new property in the area.  The stay was a challenge due to two months in a hotel room with two pets, but the staff at the CS made the stay comfortable and convenient.  The hotel is kept clean, the rooms are comfortable, provide internet, and flat screen tv, and kitchens.  Usually when we travel for leisure, Candlewood Suites has not been our choice.  However, I must say that the staff at this property was AWESOME and made our stay comfortable and pleasant.  The rate could not be beat and our two dogs, who are a part of our family were welcomed.  Much thanks to all the staff!More</t>
   </si>
   <si>
-    <t>Greekprof7</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r159685541-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -840,9 +756,6 @@
     <t>May 2013</t>
   </si>
   <si>
-    <t>PaulABQ</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r148249515-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -858,9 +771,6 @@
     <t>Clean large room, very nice. Pet friendly but will cost $25.00. Extra roll-a-way is $10.00, which is a little ridiculous. Overall staff is very nice and a very clean place to stay. Right off the freeway, easy on and off. Well lite parking lot.</t>
   </si>
   <si>
-    <t>labivens</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r139418848-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -876,9 +786,6 @@
     <t xml:space="preserve">Clean, quiet and close to highway. If you can find the street to the driveway, streets are a little confusing. There's no breakfast but coffee available. Very well lighted and safe parking lot. Close to shopping and several places to eat. </t>
   </si>
   <si>
-    <t>dgreen621</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r133533353-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -897,9 +804,6 @@
     <t>June 2012</t>
   </si>
   <si>
-    <t>oksooner1</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r132478256-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -918,9 +822,6 @@
     <t>I stayed here for one night with my elderly parents.  We stayed in a one bedroom unit with a sleeper sofa.  My mother is VERY picky about hotel cleanliness and was pleased.  The rooms were warm when we arrived but quickly cooled down.  Room size was great - 2 TVs also nice.  The kitchen was clean and functional.   They give two coupons per room for breakfast or lunch at the nearby, though really not walkable, Waffle House.  As previously mentioned the have an honor system snack room.  Some items are free. Due to a circumstance beyond our control we needed a slightly late check out time; they were understanding.     I do not anticipate ever traveling through this area again but if I did I would stay here again.More</t>
   </si>
   <si>
-    <t>Neel K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r130552588-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -939,9 +840,6 @@
     <t>April 2012</t>
   </si>
   <si>
-    <t>tonyandpamt</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r129829657-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -960,16 +858,22 @@
     <t>May 2012</t>
   </si>
   <si>
-    <t>Christy S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r126511396-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
     <t>126511396</t>
   </si>
   <si>
-    <t>thetravellingoctopus</t>
+    <t>03/22/2012</t>
+  </si>
+  <si>
+    <t>Awesome experience</t>
+  </si>
+  <si>
+    <t>Hotels today, due to fire codes are limited to # of occupants and we didn't want to spend 100 anight for 2 rooms and the mgr. gave us a GREAT rate to get 2 rooms.  When we arrived we were amazed.  The staff (every shift) was so nice and helpful, the rooms were so big, like home.  Full size refrigerator, dishes supplied, toaster, coffee make, perfect for extended stays.  Weight room is open all night and the pool is away so noise will not bother anyone.  ANYTHING you need they were willing to accomidate.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r124321087-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
@@ -987,9 +891,6 @@
     <t>We booked through Hotwire, so got a cheaper than advertised rate...but it would definitely have been worth the list price anyway!Room nice and spacious, clean with really comfy bed. Kitchen had all the pots and pans we needed and WalMart was only a ten minute walk away. Had a problem connecting to WiFi, but tech support very helpful (we have a tablet PC, which they suggested might be the problem as they're less adept at picking up weak signals), but made ample use of the on site business centre instead.Free laundry another real bonus! Best value place we've stayed at, thanks!</t>
   </si>
   <si>
-    <t>J T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r122947378-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1011,9 +912,6 @@
     <t>I booked this room on Priceline for $40 ($52 with tax) for a recent Saturday night. We arrived after a long day of travel and the manager told us he would only offer a room with one queen bed because of the Priceline rate. There were four of us -- me, my husband, and our two exhausted young children. The manager/owner told us he had plenty of extra rooms with kings or two doubles, and he did not plan to sell out that night, but he could not offer us a different room, or a roll away bed. So, my poor husband slept on the floor on a pile of sheets. We were unable to contact Priceline that night, but I spoke with them after the trip and they said the room is completely up to the manager's discretion. I find that most people are kind enough to help others out if they can. This owner wasn't willing to do that. Additionally, the hotel was not clean -- I took my socks off before bed and my feet stuck to the faux hardwood floors in the kitchen area, uck. Also the hotel was filled with people who were drinking and partying and making tons of noise all night -- I think I slept for an hour tops. All morning, wherever you went on the property, there were empty beer bottles. When we took our two young children to the indoor...I booked this room on Priceline for $40 ($52 with tax) for a recent Saturday night. We arrived after a long day of travel and the manager told us he would only offer a room with one queen bed because of the Priceline rate. There were four of us -- me, my husband, and our two exhausted young children. The manager/owner told us he had plenty of extra rooms with kings or two doubles, and he did not plan to sell out that night, but he could not offer us a different room, or a roll away bed. So, my poor husband slept on the floor on a pile of sheets. We were unable to contact Priceline that night, but I spoke with them after the trip and they said the room is completely up to the manager's discretion. I find that most people are kind enough to help others out if they can. This owner wasn't willing to do that. Additionally, the hotel was not clean -- I took my socks off before bed and my feet stuck to the faux hardwood floors in the kitchen area, uck. Also the hotel was filled with people who were drinking and partying and making tons of noise all night -- I think I slept for an hour tops. All morning, wherever you went on the property, there were empty beer bottles. When we took our two young children to the indoor swimming pool, the floors were littered with cigarette butts, beer bottles and bottle caps. We are huge Priceline fans and book a lot of rooms off the site, and this was by far the worst experience we've had.More</t>
   </si>
   <si>
-    <t>Jill D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r118017853-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1030,9 +928,6 @@
   </si>
   <si>
     <t>September 2011</t>
-  </si>
-  <si>
-    <t>kgw86</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1657503-r114773679-Candlewood_Suites_Weatherford-Weatherford_Texas.html</t>
@@ -1570,47 +1465,43 @@
       <c r="A2" t="n">
         <v>59683</v>
       </c>
-      <c r="B2" t="n">
-        <v>124195</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
-      </c>
-      <c r="L2" t="s">
-        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>
@@ -1626,60 +1517,56 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
         <v>54</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>55</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>59683</v>
       </c>
-      <c r="B3" t="n">
-        <v>124196</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>59</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>60</v>
-      </c>
-      <c r="K3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L3" t="s">
-        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
@@ -1697,54 +1584,50 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>59683</v>
       </c>
-      <c r="B4" t="n">
-        <v>37350</v>
-      </c>
-      <c r="C4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
         <v>67</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>68</v>
-      </c>
-      <c r="J4" t="s">
-        <v>69</v>
-      </c>
-      <c r="K4" t="s">
-        <v>70</v>
-      </c>
-      <c r="L4" t="s">
-        <v>71</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P4" t="n">
         <v>4</v>
@@ -1764,54 +1647,50 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>59683</v>
       </c>
-      <c r="B5" t="n">
-        <v>124197</v>
-      </c>
-      <c r="C5" t="s">
-        <v>74</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
         <v>75</v>
-      </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J5" t="s">
-        <v>77</v>
-      </c>
-      <c r="K5" t="s">
-        <v>78</v>
-      </c>
-      <c r="L5" t="s">
-        <v>79</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1831,54 +1710,50 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>59683</v>
       </c>
-      <c r="B6" t="n">
-        <v>124198</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
         <v>81</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J6" t="s">
-        <v>84</v>
-      </c>
-      <c r="K6" t="s">
-        <v>85</v>
-      </c>
-      <c r="L6" t="s">
-        <v>86</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1898,54 +1773,50 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>59683</v>
       </c>
-      <c r="B7" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>88</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="O7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1959,54 +1830,50 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>59683</v>
       </c>
-      <c r="B8" t="n">
-        <v>65463</v>
-      </c>
-      <c r="C8" t="s">
-        <v>96</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="O8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2020,54 +1887,50 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>59683</v>
       </c>
-      <c r="B9" t="n">
-        <v>124199</v>
-      </c>
-      <c r="C9" t="s">
-        <v>103</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="J9" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="K9" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="O9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2079,60 +1942,56 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="X9" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="Y9" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>59683</v>
       </c>
-      <c r="B10" t="n">
-        <v>124200</v>
-      </c>
-      <c r="C10" t="s">
-        <v>112</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="J10" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="K10" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="O10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2148,60 +2007,56 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="X10" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="Y10" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>59683</v>
       </c>
-      <c r="B11" t="n">
-        <v>124201</v>
-      </c>
-      <c r="C11" t="s">
-        <v>122</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="J11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="K11" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="L11" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="O11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -2219,60 +2074,56 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="X11" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="Y11" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>59683</v>
       </c>
-      <c r="B12" t="n">
-        <v>124202</v>
-      </c>
-      <c r="C12" t="s">
-        <v>132</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
       <c r="I12" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="J12" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="K12" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="L12" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -2290,54 +2141,50 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>59683</v>
       </c>
-      <c r="B13" t="n">
-        <v>7516</v>
-      </c>
-      <c r="C13" t="s">
-        <v>139</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
       <c r="I13" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="J13" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="K13" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="L13" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="O13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2351,54 +2198,50 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>59683</v>
       </c>
-      <c r="B14" t="n">
-        <v>124203</v>
-      </c>
-      <c r="C14" t="s">
-        <v>146</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
         <v>46</v>
       </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
       <c r="I14" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="J14" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="K14" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="O14" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -2416,60 +2259,56 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="X14" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="Y14" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>59683</v>
       </c>
-      <c r="B15" t="n">
-        <v>68872</v>
-      </c>
-      <c r="C15" t="s">
-        <v>156</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
         <v>46</v>
       </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
       <c r="I15" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="J15" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="K15" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="L15" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="O15" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2487,54 +2326,50 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>59683</v>
       </c>
-      <c r="B16" t="n">
-        <v>88460</v>
-      </c>
-      <c r="C16" t="s">
-        <v>163</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
         <v>46</v>
       </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
       <c r="I16" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="J16" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="K16" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="L16" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="O16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2546,60 +2381,56 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="X16" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="Y16" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>59683</v>
       </c>
-      <c r="B17" t="n">
-        <v>124204</v>
-      </c>
-      <c r="C17" t="s">
-        <v>173</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
         <v>46</v>
       </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
       <c r="I17" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="J17" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="K17" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="L17" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="O17" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -2619,54 +2450,50 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>59683</v>
       </c>
-      <c r="B18" t="n">
-        <v>124205</v>
-      </c>
-      <c r="C18" t="s">
-        <v>180</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
         <v>46</v>
       </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
       <c r="I18" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="J18" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="K18" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="L18" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="O18" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -2686,54 +2513,50 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>59683</v>
       </c>
-      <c r="B19" t="n">
-        <v>124206</v>
-      </c>
-      <c r="C19" t="s">
-        <v>187</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
         <v>46</v>
       </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
       <c r="I19" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="J19" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="K19" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="L19" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -2753,54 +2576,50 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>59683</v>
       </c>
-      <c r="B20" t="n">
-        <v>124207</v>
-      </c>
-      <c r="C20" t="s">
-        <v>194</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
         <v>46</v>
       </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
       <c r="I20" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="J20" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="K20" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="L20" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="O20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2812,60 +2631,56 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="X20" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="Y20" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>59683</v>
       </c>
-      <c r="B21" t="n">
-        <v>124208</v>
-      </c>
-      <c r="C21" t="s">
-        <v>204</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
         <v>46</v>
       </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
       <c r="I21" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="J21" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="K21" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="L21" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="O21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
@@ -2883,60 +2698,56 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="X21" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="Y21" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>59683</v>
       </c>
-      <c r="B22" t="n">
-        <v>124209</v>
-      </c>
-      <c r="C22" t="s">
-        <v>214</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
         <v>46</v>
       </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
       <c r="I22" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="J22" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="K22" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="L22" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="O22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2954,60 +2765,56 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="X22" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="Y22" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>59683</v>
       </c>
-      <c r="B23" t="n">
-        <v>124210</v>
-      </c>
-      <c r="C23" t="s">
-        <v>221</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
         <v>46</v>
       </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
       <c r="I23" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="J23" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="K23" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="L23" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="O23" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="P23" t="n">
         <v>2</v>
@@ -3025,60 +2832,56 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="X23" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="Y23" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>59683</v>
       </c>
-      <c r="B24" t="n">
-        <v>124211</v>
-      </c>
-      <c r="C24" t="s">
-        <v>231</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
         <v>46</v>
       </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
       <c r="I24" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="J24" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="K24" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="L24" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="O24" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3092,54 +2895,50 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>59683</v>
       </c>
-      <c r="B25" t="n">
-        <v>124212</v>
-      </c>
-      <c r="C25" t="s">
-        <v>238</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
         <v>46</v>
       </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
       <c r="I25" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="J25" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="K25" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="L25" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -3163,54 +2962,50 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>59683</v>
       </c>
-      <c r="B26" t="n">
-        <v>124213</v>
-      </c>
-      <c r="C26" t="s">
-        <v>245</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
         <v>46</v>
       </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
       <c r="I26" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="J26" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="K26" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="L26" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="O26" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3234,54 +3029,50 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>59683</v>
       </c>
-      <c r="B27" t="n">
-        <v>124214</v>
-      </c>
-      <c r="C27" t="s">
-        <v>252</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
         <v>46</v>
       </c>
-      <c r="H27" t="s">
-        <v>47</v>
-      </c>
       <c r="I27" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="J27" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="K27" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="L27" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="O27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -3305,54 +3096,50 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>59683</v>
       </c>
-      <c r="B28" t="n">
-        <v>5008</v>
-      </c>
-      <c r="C28" t="s">
-        <v>259</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
         <v>46</v>
       </c>
-      <c r="H28" t="s">
-        <v>47</v>
-      </c>
       <c r="I28" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="J28" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="K28" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="L28" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="O28" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -3376,54 +3163,50 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>59683</v>
       </c>
-      <c r="B29" t="n">
-        <v>124215</v>
-      </c>
-      <c r="C29" t="s">
-        <v>267</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
         <v>46</v>
       </c>
-      <c r="H29" t="s">
-        <v>47</v>
-      </c>
       <c r="I29" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="J29" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="K29" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="L29" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="O29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -3447,45 +3230,41 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>59683</v>
       </c>
-      <c r="B30" t="n">
-        <v>124216</v>
-      </c>
-      <c r="C30" t="s">
-        <v>274</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
         <v>46</v>
       </c>
-      <c r="H30" t="s">
-        <v>47</v>
-      </c>
       <c r="I30" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="J30" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="K30" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="L30" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
@@ -3514,45 +3293,41 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>59683</v>
       </c>
-      <c r="B31" t="n">
-        <v>124217</v>
-      </c>
-      <c r="C31" t="s">
-        <v>280</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
         <v>46</v>
       </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
       <c r="I31" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="J31" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="K31" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="L31" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
@@ -3581,54 +3356,50 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>59683</v>
       </c>
-      <c r="B32" t="n">
-        <v>124218</v>
-      </c>
-      <c r="C32" t="s">
-        <v>286</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
         <v>46</v>
       </c>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
       <c r="I32" t="s">
-        <v>288</v>
+        <v>257</v>
       </c>
       <c r="J32" t="s">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="K32" t="s">
-        <v>290</v>
+        <v>259</v>
       </c>
       <c r="L32" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="O32" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3652,54 +3423,50 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>59683</v>
       </c>
-      <c r="B33" t="n">
-        <v>54000</v>
-      </c>
-      <c r="C33" t="s">
-        <v>293</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
         <v>46</v>
       </c>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
       <c r="I33" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="J33" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="K33" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="L33" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="O33" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -3713,54 +3480,50 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>59683</v>
       </c>
-      <c r="B34" t="n">
-        <v>124219</v>
-      </c>
-      <c r="C34" t="s">
-        <v>300</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
         <v>46</v>
       </c>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
       <c r="I34" t="s">
-        <v>302</v>
+        <v>269</v>
       </c>
       <c r="J34" t="s">
-        <v>303</v>
+        <v>270</v>
       </c>
       <c r="K34" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="L34" t="s">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="O34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P34" t="n">
         <v>4</v>
@@ -3784,54 +3547,50 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>305</v>
+        <v>272</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>59683</v>
       </c>
-      <c r="B35" t="n">
-        <v>124220</v>
-      </c>
-      <c r="C35" t="s">
-        <v>307</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
         <v>46</v>
       </c>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
       <c r="I35" t="s">
-        <v>309</v>
+        <v>275</v>
       </c>
       <c r="J35" t="s">
-        <v>310</v>
+        <v>276</v>
       </c>
       <c r="K35" t="s">
-        <v>311</v>
+        <v>277</v>
       </c>
       <c r="L35" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>313</v>
+        <v>279</v>
       </c>
       <c r="O35" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -3855,89 +3614,108 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>59683</v>
       </c>
-      <c r="B36" t="n">
-        <v>13871</v>
-      </c>
-      <c r="C36" t="s">
-        <v>314</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
         <v>46</v>
       </c>
-      <c r="H36" t="s">
-        <v>47</v>
-      </c>
       <c r="I36" t="s">
-        <v>316</v>
-      </c>
-      <c r="J36" t="s"/>
-      <c r="K36" t="s"/>
-      <c r="L36" t="s"/>
-      <c r="M36" t="s"/>
-      <c r="N36" t="s"/>
-      <c r="O36" t="s"/>
-      <c r="P36" t="s"/>
-      <c r="Q36" t="s"/>
-      <c r="R36" t="s"/>
-      <c r="S36" t="s"/>
+        <v>281</v>
+      </c>
+      <c r="J36" t="s">
+        <v>282</v>
+      </c>
+      <c r="K36" t="s">
+        <v>283</v>
+      </c>
+      <c r="L36" t="s">
+        <v>284</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>285</v>
+      </c>
+      <c r="O36" t="s">
+        <v>89</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
       <c r="T36" t="s"/>
-      <c r="U36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
       <c r="V36" t="n">
         <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>59683</v>
       </c>
-      <c r="B37" t="n">
-        <v>124221</v>
-      </c>
-      <c r="C37" t="s">
-        <v>317</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
         <v>46</v>
       </c>
-      <c r="H37" t="s">
-        <v>47</v>
-      </c>
       <c r="I37" t="s">
-        <v>319</v>
+        <v>287</v>
       </c>
       <c r="J37" t="s">
-        <v>320</v>
+        <v>288</v>
       </c>
       <c r="K37" t="s">
-        <v>321</v>
+        <v>289</v>
       </c>
       <c r="L37" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
@@ -3966,54 +3744,50 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>59683</v>
       </c>
-      <c r="B38" t="n">
-        <v>37081</v>
-      </c>
-      <c r="C38" t="s">
-        <v>323</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>324</v>
+        <v>291</v>
       </c>
       <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
         <v>46</v>
       </c>
-      <c r="H38" t="s">
-        <v>47</v>
-      </c>
       <c r="I38" t="s">
-        <v>325</v>
+        <v>292</v>
       </c>
       <c r="J38" t="s">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="K38" t="s">
-        <v>327</v>
+        <v>294</v>
       </c>
       <c r="L38" t="s">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="O38" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="P38" t="n">
         <v>1</v>
@@ -4037,54 +3811,50 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>330</v>
+        <v>297</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>59683</v>
       </c>
-      <c r="B39" t="n">
-        <v>3636</v>
-      </c>
-      <c r="C39" t="s">
-        <v>331</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>332</v>
+        <v>298</v>
       </c>
       <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
         <v>46</v>
       </c>
-      <c r="H39" t="s">
-        <v>47</v>
-      </c>
       <c r="I39" t="s">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="J39" t="s">
-        <v>334</v>
+        <v>300</v>
       </c>
       <c r="K39" t="s">
-        <v>335</v>
+        <v>301</v>
       </c>
       <c r="L39" t="s">
-        <v>336</v>
+        <v>302</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="O39" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -4104,54 +3874,50 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>336</v>
+        <v>302</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>59683</v>
       </c>
-      <c r="B40" t="n">
-        <v>124222</v>
-      </c>
-      <c r="C40" t="s">
-        <v>338</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>339</v>
+        <v>304</v>
       </c>
       <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
         <v>46</v>
       </c>
-      <c r="H40" t="s">
-        <v>47</v>
-      </c>
       <c r="I40" t="s">
-        <v>340</v>
+        <v>305</v>
       </c>
       <c r="J40" t="s">
-        <v>341</v>
+        <v>306</v>
       </c>
       <c r="K40" t="s">
-        <v>342</v>
+        <v>307</v>
       </c>
       <c r="L40" t="s">
-        <v>343</v>
+        <v>308</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>344</v>
+        <v>309</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4169,13 +3935,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>345</v>
+        <v>310</v>
       </c>
       <c r="X40" t="s">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="Y40" t="s">
-        <v>347</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
